--- a/labs/telework-vancouver/lab_files/telework_cases.xlsx
+++ b/labs/telework-vancouver/lab_files/telework_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marc.mouries/projects/Telework-Case-Management-Lab/lab_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dale.stubblefield/Downloads/telework_lab_files-5a5845872b39baf02ed6204bed47ed6b (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C426B-7FE1-7F4A-85B2-298EF9D4396D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A61FF-04C7-664A-ADC4-67FE34AE0280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36580" yWindow="5880" windowWidth="34560" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="33460" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="67">
   <si>
     <t>Priority</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Arrangement</t>
   </si>
   <si>
-    <t>Reason</t>
-  </si>
-  <si>
     <t>Short description</t>
   </si>
   <si>
@@ -227,6 +224,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -262,13 +268,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -282,17 +296,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D147A1B0-A85F-FA48-A1C5-41EB9223ECB6}" name="Table3" displayName="Table3" ref="A1:H40" totalsRowShown="0">
-  <autoFilter ref="A1:H40" xr:uid="{D147A1B0-A85F-FA48-A1C5-41EB9223ECB6}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D147A1B0-A85F-FA48-A1C5-41EB9223ECB6}" name="Table3" displayName="Table3" ref="A1:J40" totalsRowShown="0">
+  <autoFilter ref="A1:J40" xr:uid="{D147A1B0-A85F-FA48-A1C5-41EB9223ECB6}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0C012D46-43FC-2E47-9135-64C87BC989F7}" name="Priority"/>
     <tableColumn id="2" xr3:uid="{8268E2B7-8F23-CD46-8AC7-BE2BB9EC75FB}" name="Opened by"/>
     <tableColumn id="3" xr3:uid="{23A92060-4CF4-3D4F-AF49-D87B20399EAE}" name="Arrangement"/>
-    <tableColumn id="4" xr3:uid="{90B0A2D0-33F0-2C4B-9327-6D94DBF7FBBA}" name="Reason"/>
+    <tableColumn id="4" xr3:uid="{90B0A2D0-33F0-2C4B-9327-6D94DBF7FBBA}" name="Justification"/>
     <tableColumn id="8" xr3:uid="{13634DD4-BDB0-6145-802D-603B57CA3061}" name="Days per week"/>
     <tableColumn id="5" xr3:uid="{B8435C68-C517-2D40-8F8E-473D26479298}" name="Short description"/>
     <tableColumn id="6" xr3:uid="{EC84D9EF-21DB-4646-84C1-4DAF1D4426BD}" name="State"/>
     <tableColumn id="7" xr3:uid="{29E0F2D8-D675-914F-BE2C-C1EBB02971A1}" name="Assigned to"/>
+    <tableColumn id="9" xr3:uid="{68C074C1-4215-E247-9ED9-AB8F28D1B87C}" name="Opened" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E974F089-7B5F-D145-9C48-179F9F725513}" name="Description" dataDxfId="0">
+      <calculatedColumnFormula>B2&amp;" requests "&amp;C2&amp;" for the reason: "&amp;D2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964130B9-ACDF-8E40-967F-916E8D66C226}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -611,9 +629,11 @@
     <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,982 +644,1261 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="1">
+        <v>45115.758912037039</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J40" si="0">B2&amp;" requests "&amp;C2&amp;" for the reason: "&amp;D2</f>
+        <v>Billie Cowley requests Situational Telework for the reason: Dependent Care</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45124.406458333331</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Cherie Fuhri requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45143.639317129629</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Christian Marnell requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45192.918773148151</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>David Loo requests Remote Telework for the reason: Dependent Care</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45122.205196759256</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jacinto Gawron requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45165.855023148149</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jess Assad requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45211.560879629629</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jewel Agresta requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45132.464537037034</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jimmie Barninger requests Situational Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45178.801423611112</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Krystle Stika requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45207.235706018517</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Lucius Bagnoli requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45141.590833333335</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Melinda Carleton requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I13" s="1">
+        <v>45109.29111111111</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Naomi Greenly requests Regular and Recurring Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45219.656597222223</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Sean Bonnet requests Regular and Recurring Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45118.849988425929</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>Billie Cowley requests Situational Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45155.000752314816</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>Cherie Fuhri requests Situational Telework for the reason: Dependent Care</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45146.44121527778</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>Christian Marnell requests Situational Telework for the reason: Dependent Care</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45203.197731481479</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">David Loo requests Situational Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45136.826817129629</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jacinto Gawron requests Situational Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45170.468865740739</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jess Assad requests Situational Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
         <v>46</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" s="1">
+        <v>45223.080937500003</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jewel Agresta requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45115.758912037039</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jimmie Barninger requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45124.406458333331</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Krystle Stika requests Remote Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45143.639317129629</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Lucius Bagnoli requests Situational Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45192.918773148151</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Melinda Carleton requests Situational Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45122.205196759256</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>Naomi Greenly requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45165.855023148149</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Sean Bonnet requests Regular and Recurring Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45211.560879629629</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>Billie Cowley requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45132.464537037034</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Cherie Fuhri requests Regular and Recurring Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45178.801423611112</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Christian Marnell requests Situational Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
       <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45207.235706018517</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">David Loo requests Situational Telework for the reason: Medical </v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45141.590833333335</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>Jacinto Gawron requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45109.29111111111</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>Jess Assad requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
         <v>10</v>
       </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45219.656597222223</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>Jewel Agresta requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45118.849988425929</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>Jimmie Barninger requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45155.000752314816</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>Krystle Stika requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45146.44121527778</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>Lucius Bagnoli requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45203.197731481479</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>Melinda Carleton requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
         <v>18</v>
       </c>
-      <c r="H32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="I39" s="1">
+        <v>45136.826817129629</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>Naomi Greenly requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
         <v>18</v>
       </c>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
-        <v>19</v>
+      <c r="I40" s="1">
+        <v>45170.468865740739</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>Sean Bonnet requests Regular and Recurring Telework for the reason: Reasonable Accommodation</v>
       </c>
     </row>
   </sheetData>
@@ -1611,15 +1910,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100326EE4B8A329F247B671E46B165BB510" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="507c83fb43b18f2ae20b566a3ce34ef2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1dd91f4d-33cb-40ab-a554-610c5dae71ff" xmlns:ns3="39b046ab-967a-43de-8cf8-5c544958e1c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab0c2d860dd90c204ff3c54de625a6df" ns2:_="" ns3:_="">
     <xsd:import namespace="1dd91f4d-33cb-40ab-a554-610c5dae71ff"/>
@@ -1870,7 +2160,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="39b046ab-967a-43de-8cf8-5c544958e1c9">
@@ -1890,15 +2180,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5F8EFC-C026-4BAD-8921-47ECE937F160}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42933963-38CD-4D55-B0F8-C5C5AAB36991}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1917,7 +2208,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{321F09BA-DD53-48DC-960A-22C66B6B217A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1932,4 +2223,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5F8EFC-C026-4BAD-8921-47ECE937F160}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>